--- a/testcases/修改验收事项.xlsx
+++ b/testcases/修改验收事项.xlsx
@@ -123,70 +123,71 @@
     <t>初始化验收事项1-数值</t>
   </si>
   <si>
-    <t>{"nowPage": 1, "pageShow": 10, "searchParam": "[{\"name\":\"itemName\",\"value\":\"脚本验收事项\"},{\"name\":\"itemType\",\"value\":\"\"},{\"name\":\"itemName_q\",\"value\":\"Like\"},{\"name\":\"itemType_q\",\"value\":\"Like\"}]"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"jmespath":"retStatus", "exp":"1"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"jmespath":"{acceptUuid: retData}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增数值验收事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid": "#新增数值验收事项.acceptUuid#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid": "#新增数值验收事项.acceptUuid#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"itemName": "测试验收事项1", "itemType": "1", "uuid": "#通用.accept1Uuid#", "enable": "1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"itemName": "测试验收事项2", "itemType": "2", "uuid": "#通用.accept2Uuid#", "enable": "1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid": "#新增数值验收事项.acceptUuid#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"itemName": "脚本验收事项111", "itemType": "1", "enable": 1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nowPage": 1, "pageShow": 10, "searchParam": "[{\"name\":\"itemName\",\"value\":\"脚本验收事项111\"},{\"name\":\"itemType\",\"value\":\"\"},{\"name\":\"itemName_q\",\"value\":\"Like\"},{\"name\":\"itemType_q\",\"value\":\"Like\"}]"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"itemName": "脚本验收事项111", "itemType": "2", "enable": 1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"itemName": "脚本验收事项111", "itemType": "2", "uuid": "#新增数值验收事项.acceptUuid#", "enable": "1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[{"jmespath":"retStatus", "exp":"1"},
-{"jmespath":"retData.results[0].itemName", "exp":"脚本验收事项"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"itemName": "脚本验收事项", "itemType": "1", "enable": 1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"itemName": "脚本验收事项", "itemType": "2", "enable": 1}</t>
+{"jmespath":"retData.results[0].itemName", "exp":"脚本验收事项111"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jmespath":"retStatus", "exp":"1"},
+{"jmespath":"retData.itemName", "exp":"脚本验收事项111"},{"jmespath":"retData.itemType", "exp":"1"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jmespath":"retStatus", "exp":"1"},
+{"jmespath":"retData.itemName", "exp":"脚本验收事项111"},{"jmespath":"retData.itemType", "exp":"1"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[{"jmespath":"retStatus", "exp":"2"},
-{"jmespath":"retMessage", "exp":"验收事项名称[脚本验收事项]已存在"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"jmespath":"{acceptUuid: retData}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增数值验收事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"uuid": "#新增数值验收事项.acceptUuid#"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"jmespath":"retStatus", "exp":"1"},
-{"jmespath":"retData.itemName", "exp":"脚本验收事项"},{"jmespath":"retData.itemType", "exp":"1"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"nowPage": 1, "pageShow": 10, "searchParam": "[{\"name\":\"itemName\",\"value\":\"脚本验收事项\"},{\"name\":\"itemType\",\"value\":\"\"},{\"name\":\"itemName_q\",\"value\":\"Like\"},{\"name\":\"itemType_q\",\"value\":\"Like\"}]"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"uuid": "#新增数值验收事项.acceptUuid#"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"itemName": "测试验收事项1", "itemType": "1", "uuid": "#通用.accept1Uuid#", "enable": "1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"itemName": "测试验收事项2", "itemType": "2", "uuid": "#通用.accept2Uuid#", "enable": "1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"uuid": "#新增数值验收事项.acceptUuid#"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"itemName": "脚本验收事项", "itemType": "2", "uuid": "#新增数值验收事项.acceptUuid#", "enable": "1"}</t>
+{"jmespath":"retMessage", "exp":"验收事项名称[脚本验收事项111]已存在"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,8 +543,8 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -598,7 +599,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -610,7 +611,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -619,10 +620,10 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
         <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -639,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -648,7 +649,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -665,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -674,7 +675,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -691,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -700,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -717,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -726,7 +727,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -743,7 +744,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -752,7 +753,7 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -769,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -778,7 +779,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -795,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -804,7 +805,7 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -821,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -830,7 +831,7 @@
         <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -847,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -856,7 +857,7 @@
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
